--- a/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
+++ b/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBF8DAF-0A56-E146-A080-8D5C620035C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="L.O" sheetId="3" r:id="rId1"/>
-    <sheet name="RC" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">L.O!$A$11:$A$28</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">L.O!$D$11:$D$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">L.O!$A$11:$A$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">L.O!$C$11:$C$28</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">L.O!$A$11:$A$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">L.O!$D$11:$D$28</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">L.O!$A$11:$A$28</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">L.O!$C$11:$C$28</definedName>
+  </definedNames>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,27 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
-  <si>
-    <t>Vdd</t>
-  </si>
-  <si>
-    <t>Startup</t>
-  </si>
-  <si>
-    <t>BLE packet</t>
-  </si>
-  <si>
-    <t>Average current μA</t>
-  </si>
-  <si>
-    <t>Time ms</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Average current in μA</t>
-  </si>
-  <si>
-    <t>PPK</t>
   </si>
   <si>
     <t>Time in ms</t>
@@ -54,25 +46,10 @@
     <t>Work in μWs</t>
   </si>
   <si>
-    <t>Startup PPK</t>
-  </si>
-  <si>
     <t>BLE event OPP</t>
   </si>
   <si>
-    <t>Total work in μWs</t>
-  </si>
-  <si>
     <t>Voltage</t>
-  </si>
-  <si>
-    <t>Startup work in μWs</t>
-  </si>
-  <si>
-    <t>&lt;--BLE event</t>
-  </si>
-  <si>
-    <t>&lt;--Startup</t>
   </si>
 </sst>
 </file>
@@ -82,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,12 +105,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="12"/>
@@ -142,31 +113,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,67 +145,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -359,7 +275,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>L.O!$B$4:$B$21</c:f>
+              <c:f>L.O!$A$11:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -422,7 +338,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>L.O!$E$4:$E$21</c:f>
+              <c:f>L.O!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="18"/>
@@ -768,7 +684,547 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2000" baseline="0"/>
+              <a:t>Current consumption at different voltages</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>L.O!$A$11:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>L.O!$C$11:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44B2-0243-9E18-320F34A13FAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1890894688"/>
+        <c:axId val="1890896384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1890894688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="2000" baseline="0"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1890896384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1890896384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="2000" baseline="0"/>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="2000" baseline="0"/>
+                  <a:t>A</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1890894688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1311,19 +1767,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>363039</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>179597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>38485</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1344,6 +2303,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256565</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>153939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>714538</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12827</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E1ECF1-3BF3-1E48-93C6-FB808B709B40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1649,17 +2646,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A384BA0-3C50-7245-86DA-782CB137FD7D}">
-  <dimension ref="A2:L63"/>
+  <dimension ref="A9:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
@@ -1668,410 +2665,328 @@
     <col min="9" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>1.7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="B11" s="3">
         <v>25</v>
       </c>
-      <c r="D4" s="3">
+      <c r="C11" s="3">
         <v>739</v>
       </c>
-      <c r="E4" s="32">
-        <f>B4*C4*D4*10^(-3)</f>
+      <c r="D11" s="15">
+        <f>A11*B11*C11*10^(-3)</f>
         <v>31.407500000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="22">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>1.8</v>
       </c>
-      <c r="C5" s="22">
+      <c r="B12" s="13">
         <v>25</v>
       </c>
-      <c r="D5" s="22">
+      <c r="C12" s="13">
         <v>713</v>
       </c>
-      <c r="E5" s="32">
-        <f>B5*C5*D5*10^(-3)</f>
+      <c r="D12" s="15">
+        <f>A12*B12*C12*10^(-3)</f>
         <v>32.085000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="22">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>1.9</v>
       </c>
-      <c r="C6" s="22">
+      <c r="B13" s="13">
         <v>25</v>
       </c>
-      <c r="D6" s="22">
+      <c r="C13" s="13">
         <v>684</v>
       </c>
-      <c r="E6" s="32">
-        <f t="shared" ref="E6:E15" si="0">B6*C6*D6*10^(-3)</f>
+      <c r="D13" s="15">
+        <f t="shared" ref="D13:D22" si="0">A13*B13*C13*10^(-3)</f>
         <v>32.49</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="22">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="22">
+      <c r="B14" s="13">
         <v>25</v>
       </c>
-      <c r="D7" s="22">
+      <c r="C14" s="13">
         <v>661</v>
       </c>
-      <c r="E7" s="32">
+      <c r="D14" s="15">
         <f t="shared" si="0"/>
         <v>33.049999999999997</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="22">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>2.1</v>
       </c>
-      <c r="C8" s="22">
+      <c r="B15" s="13">
         <v>25</v>
       </c>
-      <c r="D8" s="22">
+      <c r="C15" s="13">
         <v>640</v>
       </c>
-      <c r="E8" s="32">
+      <c r="D15" s="15">
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="22">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C9" s="22">
+      <c r="B16" s="13">
         <v>25</v>
       </c>
-      <c r="D9" s="22">
+      <c r="C16" s="13">
         <v>621</v>
       </c>
-      <c r="E9" s="32">
+      <c r="D16" s="15">
         <f t="shared" si="0"/>
         <v>34.155000000000008</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="22">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C10" s="22">
+      <c r="B17" s="13">
         <v>25</v>
       </c>
-      <c r="D10" s="22">
+      <c r="C17" s="13">
         <v>603</v>
       </c>
-      <c r="E10" s="32">
+      <c r="D17" s="15">
         <f t="shared" si="0"/>
         <v>34.672499999999992</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="22">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
         <v>2.4</v>
       </c>
-      <c r="C11" s="22">
+      <c r="B18" s="13">
         <v>25</v>
       </c>
-      <c r="D11" s="22">
+      <c r="C18" s="13">
         <v>586</v>
       </c>
-      <c r="E11" s="32">
+      <c r="D18" s="15">
         <f t="shared" si="0"/>
         <v>35.160000000000004</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="J18" s="5"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="22">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
         <v>2.5</v>
       </c>
-      <c r="C12" s="22">
+      <c r="B19" s="13">
         <v>25</v>
       </c>
-      <c r="D12" s="22">
+      <c r="C19" s="13">
         <v>570</v>
       </c>
-      <c r="E12" s="32">
+      <c r="D19" s="15">
         <f t="shared" si="0"/>
         <v>35.625</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="J19" s="5"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="22">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
         <v>2.6</v>
       </c>
-      <c r="C13" s="22">
+      <c r="B20" s="13">
         <v>25</v>
       </c>
-      <c r="D13" s="22">
+      <c r="C20" s="13">
         <v>555</v>
       </c>
-      <c r="E13" s="32">
+      <c r="D20" s="15">
         <f t="shared" si="0"/>
         <v>36.075000000000003</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="J20" s="5"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="22">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
         <v>2.7</v>
       </c>
-      <c r="C14" s="22">
+      <c r="B21" s="13">
         <v>25</v>
       </c>
-      <c r="D14" s="22">
+      <c r="C21" s="13">
         <v>542</v>
       </c>
-      <c r="E14" s="32">
+      <c r="D21" s="15">
         <f t="shared" si="0"/>
         <v>36.585000000000001</v>
       </c>
-      <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
         <v>2.8</v>
       </c>
-      <c r="C15" s="22">
+      <c r="B22" s="13">
         <v>25</v>
       </c>
-      <c r="D15" s="22">
+      <c r="C22" s="13">
         <v>530</v>
       </c>
-      <c r="E15" s="32">
+      <c r="D22" s="15">
         <f t="shared" si="0"/>
         <v>37.1</v>
       </c>
-      <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="22">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
         <v>2.9</v>
       </c>
-      <c r="C16" s="22">
+      <c r="B23" s="13">
         <v>25</v>
       </c>
-      <c r="D16" s="22">
+      <c r="C23" s="13">
         <v>519</v>
       </c>
-      <c r="E16" s="32">
-        <f>B16*C16*D16*10^(-3)</f>
+      <c r="D23" s="15">
+        <f>A23*B23*C23*10^(-3)</f>
         <v>37.627499999999998</v>
       </c>
-      <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="22">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
         <v>3</v>
       </c>
-      <c r="C17" s="22">
+      <c r="B24" s="13">
         <v>25</v>
       </c>
-      <c r="D17" s="22">
+      <c r="C24" s="13">
         <v>508</v>
       </c>
-      <c r="E17" s="32">
-        <f>B17*C17*D17*10^(-3)</f>
+      <c r="D24" s="15">
+        <f>A24*B24*C24*10^(-3)</f>
         <v>38.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="22">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
         <v>3.3</v>
       </c>
-      <c r="C18" s="22">
+      <c r="B25" s="13">
         <v>25</v>
       </c>
-      <c r="D18" s="22">
+      <c r="C25" s="13">
         <v>478</v>
       </c>
-      <c r="E18" s="32">
-        <f>B18*C18*D18*10^(-3)</f>
+      <c r="D25" s="15">
+        <f>A25*B25*C25*10^(-3)</f>
         <v>39.435000000000002</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="I25" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="34">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
         <v>3.4</v>
       </c>
-      <c r="C19" s="34">
+      <c r="B26" s="16">
         <v>25</v>
       </c>
-      <c r="D19" s="3">
+      <c r="C26" s="3">
         <v>471</v>
       </c>
-      <c r="E19" s="32">
-        <f t="shared" ref="E19:E21" si="1">B19*C19*D19*10^(-3)</f>
+      <c r="D26" s="15">
+        <f t="shared" ref="D26:D28" si="1">A26*B26*C26*10^(-3)</f>
         <v>40.035000000000004</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="H26" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="34">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
         <v>3.5</v>
       </c>
-      <c r="C20" s="34">
+      <c r="B27" s="16">
         <v>25</v>
       </c>
-      <c r="D20" s="3">
+      <c r="C27" s="3">
         <v>465</v>
       </c>
-      <c r="E20" s="32">
+      <c r="D27" s="15">
         <f t="shared" si="1"/>
         <v>40.6875</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="H27" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="34">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
         <v>3.6</v>
       </c>
-      <c r="C21" s="34">
+      <c r="B28" s="16">
         <v>25</v>
       </c>
-      <c r="D21" s="3">
+      <c r="C28" s="3">
         <v>460</v>
       </c>
-      <c r="E21" s="32">
+      <c r="D28" s="15">
         <f t="shared" si="1"/>
         <v>41.4</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="G28" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>8</v>
-      </c>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="3">
-        <v>2.85</v>
-      </c>
-      <c r="C26" s="3">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3">
-        <v>524</v>
-      </c>
-      <c r="E26" s="32">
-        <f>B26*C26*D26*10^(-3)</f>
-        <v>37.335000000000001</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="22">
-        <v>2.85</v>
-      </c>
-      <c r="C27" s="23">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="D27" s="23">
-        <v>481.1</v>
-      </c>
-      <c r="E27" s="33">
-        <f>B27*C27*D27*10^(-3)</f>
-        <v>99.544400999999993</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="33">
-        <f>E27-E26</f>
-        <v>62.209400999999993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="6">
-        <f>B30+E5</f>
-        <v>94.294400999999993</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
+      <c r="A61" s="7"/>
     </row>
     <row r="63" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
@@ -2081,303 +2996,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66D134A-158A-9743-B6C5-ABF24CECB8FF}">
-  <dimension ref="B2:E34"/>
-  <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="42.5" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="22">
-        <v>1.8</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="22">
-        <v>1.9</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="22">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="22">
-        <v>2.1</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="22">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="22">
-        <v>2.4</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="22">
-        <v>2.5</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="22">
-        <v>2.6</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="22">
-        <v>2.7</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="22">
-        <v>2.9</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="22">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="22">
-        <v>3.3</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="22">
-        <v>1.8</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="22">
-        <v>1.9</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="22">
-        <v>2</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="22">
-        <v>2.1</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="22">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="22">
-        <v>2.4</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="22">
-        <v>2.5</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="22">
-        <v>2.6</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="22">
-        <v>2.7</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="22">
-        <v>2.9</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="22">
-        <v>3</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="22">
-        <v>3.3</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
+++ b/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBF8DAF-0A56-E146-A080-8D5C620035C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9449E4-F521-7944-8654-742DE8CFF8DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="L.O" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">L.O!$A$11:$A$28</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">L.O!$D$11:$D$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">L.O!$A$11:$A$28</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">L.O!$C$11:$C$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">L.O!$A$11:$A$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">L.O!$D$11:$D$28</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">L.O!$A$11:$A$28</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">L.O!$C$11:$C$28</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">L.O!$A$11:$A$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">L.O!$D$11:$D$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">L.O!$A$11:$A$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">L.O!$C$11:$C$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">L.O!$A$11:$A$31</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">L.O!$D$11:$D$31</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">L.O!$A$11:$A$31</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">L.O!$C$11:$C$31</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Average current in μA</t>
   </si>
@@ -50,6 +50,39 @@
   </si>
   <si>
     <t>Voltage</t>
+  </si>
+  <si>
+    <t>BLE event PPK 10 event average values</t>
+  </si>
+  <si>
+    <t>percent difference to OPP</t>
+  </si>
+  <si>
+    <t>ehsb_nordic_b</t>
+  </si>
+  <si>
+    <t>ble_app_pwr_profiler</t>
+  </si>
+  <si>
+    <t>ble_app_beacon</t>
+  </si>
+  <si>
+    <t>Startup at 2,85V (DK mode)</t>
+  </si>
+  <si>
+    <t>1 BLE event subtracted</t>
+  </si>
+  <si>
+    <t>Startup + 1 BLE event in μWs</t>
+  </si>
+  <si>
+    <t>percent change 2,85 to 1,8</t>
+  </si>
+  <si>
+    <t>Expected energy cost μWs</t>
+  </si>
+  <si>
+    <t>Best measurements are at DK voltage 2,85V</t>
   </si>
 </sst>
 </file>
@@ -114,15 +147,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -145,28 +184,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,10 +345,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>L.O!$A$11:$A$28</c:f>
+              <c:f>L.O!$A$11:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.7</c:v>
                 </c:pt>
@@ -316,21 +386,30 @@
                   <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2.9</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>3.3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>3.4</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -338,10 +417,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>L.O!$D$11:$D$28</c:f>
+              <c:f>L.O!$D$11:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>31.407500000000002</c:v>
                 </c:pt>
@@ -379,21 +458,30 @@
                   <c:v>37.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>37.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>37.627499999999998</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>38.1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>38.517499999999998</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>38.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>39.435000000000002</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>40.035000000000004</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>40.6875</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>41.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -775,10 +863,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>L.O!$A$11:$A$28</c:f>
+              <c:f>L.O!$A$11:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.7</c:v>
                 </c:pt>
@@ -816,21 +904,30 @@
                   <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2.9</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>3.3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>3.4</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -838,10 +935,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>L.O!$C$11:$C$28</c:f>
+              <c:f>L.O!$C$11:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>739</c:v>
                 </c:pt>
@@ -879,21 +976,30 @@
                   <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>519</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>508</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>478</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>471</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
@@ -2646,44 +2752,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A384BA0-3C50-7245-86DA-782CB137FD7D}">
-  <dimension ref="A9:J63"/>
+  <dimension ref="A7:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="10" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2697,299 +2810,501 @@
       <c r="C11" s="3">
         <v>739</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <f>A11*B11*C11*10^(-3)</f>
         <v>31.407500000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="10">
         <v>1.8</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>25</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>713</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <f>A12*B12*C12*10^(-3)</f>
         <v>32.085000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>1.9</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>25</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>684</v>
       </c>
-      <c r="D13" s="15">
-        <f t="shared" ref="D13:D22" si="0">A13*B13*C13*10^(-3)</f>
+      <c r="D13" s="12">
+        <f t="shared" ref="D13:D23" si="0">A13*B13*C13*10^(-3)</f>
         <v>32.49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>25</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>661</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>33.049999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="10">
         <v>2.1</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>25</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="10">
         <v>640</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>25</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>621</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>34.155000000000008</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="10">
         <v>25</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="10">
         <v>603</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>34.672499999999992</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="10">
         <v>2.4</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>25</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="10">
         <v>586</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>35.160000000000004</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="10">
         <v>2.5</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>25</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="10">
         <v>570</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>35.625</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="10">
         <v>2.6</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>25</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="10">
         <v>555</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>36.075000000000003</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="10">
         <v>2.7</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>25</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="10">
         <v>542</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>36.585000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="10">
         <v>2.8</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>25</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="10">
         <v>530</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>37.1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="18">
+        <v>2.85</v>
+      </c>
+      <c r="B23" s="18">
+        <v>25</v>
+      </c>
+      <c r="C23" s="18">
+        <v>524</v>
+      </c>
+      <c r="D23" s="19">
+        <f t="shared" si="0"/>
+        <v>37.335000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
         <v>2.9</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B24" s="10">
         <v>25</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C24" s="10">
         <v>519</v>
       </c>
-      <c r="D23" s="15">
-        <f>A23*B23*C23*10^(-3)</f>
+      <c r="D24" s="12">
+        <f>A24*B24*C24*10^(-3)</f>
         <v>37.627499999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
         <v>3</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B25" s="10">
         <v>25</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C25" s="10">
         <v>508</v>
       </c>
-      <c r="D24" s="15">
-        <f>A24*B24*C24*10^(-3)</f>
+      <c r="D25" s="12">
+        <f>A25*B25*C25*10^(-3)</f>
         <v>38.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3">
+        <v>497</v>
+      </c>
+      <c r="D26" s="4">
+        <f>A26*B26*C26*10^(-3)</f>
+        <v>38.517499999999998</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>485</v>
+      </c>
+      <c r="D27" s="3">
+        <f>A27*B27*C27*10^(-3)</f>
+        <v>38.800000000000004</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
         <v>3.3</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B28" s="10">
         <v>25</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C28" s="10">
         <v>478</v>
       </c>
-      <c r="D25" s="15">
-        <f>A25*B25*C25*10^(-3)</f>
+      <c r="D28" s="12">
+        <f>A28*B28*C28*10^(-3)</f>
         <v>39.435000000000002</v>
       </c>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
         <v>3.4</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B29" s="13">
         <v>25</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C29" s="3">
         <v>471</v>
       </c>
-      <c r="D26" s="15">
-        <f t="shared" ref="D26:D28" si="1">A26*B26*C26*10^(-3)</f>
+      <c r="D29" s="12">
+        <f t="shared" ref="D29:D31" si="1">A29*B29*C29*10^(-3)</f>
         <v>40.035000000000004</v>
       </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
         <v>3.5</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B30" s="13">
         <v>25</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C30" s="3">
         <v>465</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D30" s="12">
         <f t="shared" si="1"/>
         <v>40.6875</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
         <v>3.6</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B31" s="13">
         <v>25</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C31" s="3">
         <v>460</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D31" s="12">
         <f t="shared" si="1"/>
         <v>41.4</v>
       </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="H48" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="G40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="20">
+        <v>2.85</v>
+      </c>
+      <c r="B42" s="13">
+        <v>26.8</v>
+      </c>
+      <c r="C42" s="13">
+        <v>373</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" ref="D42" si="2">A42*B42*C42*10^(-3)</f>
+        <v>28.489740000000005</v>
+      </c>
+      <c r="E42" s="16">
+        <f>D42/D23</f>
+        <v>0.76308396946564894</v>
+      </c>
+      <c r="G42" s="20">
+        <v>2.85</v>
+      </c>
+      <c r="H42" s="13">
+        <v>502</v>
+      </c>
+      <c r="I42" s="13">
+        <v>85</v>
+      </c>
+      <c r="J42" s="12">
+        <f>G42*H42*I42*10^(-3)</f>
+        <v>121.6095</v>
+      </c>
+      <c r="K42" s="4">
+        <f>J42-D42</f>
+        <v>93.119759999999985</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>2.85</v>
+      </c>
+      <c r="H47" s="21">
+        <f>K42+D42</f>
+        <v>121.6095</v>
+      </c>
+      <c r="J47" s="23">
+        <f>D12/D23</f>
+        <v>0.85938127762153471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="20">
+        <v>2.85</v>
+      </c>
+      <c r="B48" s="13">
+        <v>25</v>
+      </c>
+      <c r="C48" s="13">
+        <v>500</v>
+      </c>
+      <c r="D48" s="12">
+        <f t="shared" ref="D48" si="3">A48*B48*C48*10^(-3)</f>
+        <v>35.625</v>
+      </c>
+      <c r="E48" s="16">
+        <f>D48/D23</f>
+        <v>0.95419847328244267</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H49" s="10"/>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H50" s="12"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-    </row>
-    <row r="63" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="G50">
+        <v>1.8</v>
+      </c>
+      <c r="H50" s="17">
+        <f>H47*J47</f>
+        <v>104.50892748091603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="8"/>
+    </row>
+    <row r="56" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
+++ b/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
@@ -8,23 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9449E4-F521-7944-8654-742DE8CFF8DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C9F903-0D96-7E4D-8C33-A7BEB4DA4661}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="L.O" sheetId="3" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">L.O!$A$11:$A$31</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">L.O!$D$11:$D$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">L.O!$A$11:$A$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">L.O!$C$11:$C$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">L.O!$A$11:$A$31</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">L.O!$D$11:$D$31</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">L.O!$A$11:$A$31</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">L.O!$C$11:$C$31</definedName>
-  </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Average current in μA</t>
   </si>
@@ -83,6 +73,9 @@
   </si>
   <si>
     <t>Best measurements are at DK voltage 2,85V</t>
+  </si>
+  <si>
+    <t>Estimated Work</t>
   </si>
 </sst>
 </file>
@@ -2380,16 +2373,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>363039</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>179597</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>606778</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38485</xdr:rowOff>
+      <xdr:colOff>1590707</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76969</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2416,16 +2409,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>256565</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>153939</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>602929</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>714538</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12827</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1629192</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2754,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A384BA0-3C50-7245-86DA-782CB137FD7D}">
   <dimension ref="A7:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2773,20 +2766,26 @@
     <col min="11" max="11" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -2799,8 +2798,11 @@
       <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1.7</v>
       </c>
@@ -2814,8 +2816,12 @@
         <f>A11*B11*C11*10^(-3)</f>
         <v>31.407500000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11" s="12">
+        <f>D11*E42</f>
+        <v>23.966559770992372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>1.8</v>
       </c>
@@ -2829,8 +2835,12 @@
         <f>A12*B12*C12*10^(-3)</f>
         <v>32.085000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12" s="12">
+        <f>D12*E42</f>
+        <v>24.483549160305348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>1.9</v>
       </c>
@@ -2841,11 +2851,15 @@
         <v>684</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" ref="D13:D23" si="0">A13*B13*C13*10^(-3)</f>
+        <f t="shared" ref="D13:F23" si="0">A13*B13*C13*10^(-3)</f>
         <v>32.49</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13" s="12">
+        <f>D13*E42</f>
+        <v>24.792598167938934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -2859,8 +2873,12 @@
         <f t="shared" si="0"/>
         <v>33.049999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F14" s="12">
+        <f>D14*E42</f>
+        <v>25.219925190839696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>2.1</v>
       </c>
@@ -2874,8 +2892,12 @@
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15" s="12">
+        <f>D15*E42</f>
+        <v>25.639621374045806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -2889,6 +2911,10 @@
         <f t="shared" si="0"/>
         <v>34.155000000000008</v>
       </c>
+      <c r="F16" s="12">
+        <f>D16*E42</f>
+        <v>26.063132977099247</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
@@ -2904,6 +2930,10 @@
         <f t="shared" si="0"/>
         <v>34.672499999999992</v>
       </c>
+      <c r="F17" s="12">
+        <f>D17*E42</f>
+        <v>26.458028931297708</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
@@ -2919,6 +2949,10 @@
         <f t="shared" si="0"/>
         <v>35.160000000000004</v>
       </c>
+      <c r="F18" s="12">
+        <f>D18*E42</f>
+        <v>26.830032366412219</v>
+      </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2935,6 +2969,10 @@
         <f t="shared" si="0"/>
         <v>35.625</v>
       </c>
+      <c r="F19" s="12">
+        <f>D19*E42</f>
+        <v>27.184866412213744</v>
+      </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2951,6 +2989,10 @@
         <f t="shared" si="0"/>
         <v>36.075000000000003</v>
       </c>
+      <c r="F20" s="12">
+        <f>D20*E42</f>
+        <v>27.528254198473288</v>
+      </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2967,6 +3009,10 @@
         <f t="shared" si="0"/>
         <v>36.585000000000001</v>
       </c>
+      <c r="F21" s="12">
+        <f>D21*E42</f>
+        <v>27.917427022900767</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
@@ -2982,6 +3028,10 @@
         <f t="shared" si="0"/>
         <v>37.1</v>
       </c>
+      <c r="F22" s="12">
+        <f>D22*E42</f>
+        <v>28.310415267175575</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
@@ -2997,6 +3047,10 @@
         <f t="shared" si="0"/>
         <v>37.335000000000001</v>
       </c>
+      <c r="F23" s="19">
+        <f>D23*E42</f>
+        <v>28.489740000000005</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
@@ -3012,6 +3066,10 @@
         <f>A24*B24*C24*10^(-3)</f>
         <v>37.627499999999998</v>
       </c>
+      <c r="F24" s="12">
+        <f>D24*E42</f>
+        <v>28.712942061068702</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
@@ -3027,6 +3085,10 @@
         <f>A25*B25*C25*10^(-3)</f>
         <v>38.1</v>
       </c>
+      <c r="F25" s="12">
+        <f>D25*E42</f>
+        <v>29.073499236641226</v>
+      </c>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -3043,6 +3105,10 @@
         <f>A26*B26*C26*10^(-3)</f>
         <v>38.517499999999998</v>
       </c>
+      <c r="F26" s="4">
+        <f>D26*E42</f>
+        <v>29.392086793893132</v>
+      </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -3059,6 +3125,10 @@
         <f>A27*B27*C27*10^(-3)</f>
         <v>38.800000000000004</v>
       </c>
+      <c r="F27" s="4">
+        <f>D27*E42</f>
+        <v>29.607658015267184</v>
+      </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3075,6 +3145,10 @@
         <f>A28*B28*C28*10^(-3)</f>
         <v>39.435000000000002</v>
       </c>
+      <c r="F28" s="12">
+        <f>D28*E42</f>
+        <v>30.092216335877868</v>
+      </c>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3088,8 +3162,12 @@
         <v>471</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" ref="D29:D31" si="1">A29*B29*C29*10^(-3)</f>
+        <f t="shared" ref="D29:F31" si="1">A29*B29*C29*10^(-3)</f>
         <v>40.035000000000004</v>
+      </c>
+      <c r="F29" s="12">
+        <f>D29*E42</f>
+        <v>30.550066717557257</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3106,6 +3184,10 @@
         <f t="shared" si="1"/>
         <v>40.6875</v>
       </c>
+      <c r="F30" s="12">
+        <f>D30*E42</f>
+        <v>31.04797900763359</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
@@ -3120,6 +3202,10 @@
       <c r="D31" s="12">
         <f t="shared" si="1"/>
         <v>41.4</v>
+      </c>
+      <c r="F31" s="12">
+        <f>D31*E42</f>
+        <v>31.591676335877864</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -3296,8 +3382,8 @@
         <v>1.8</v>
       </c>
       <c r="H50" s="17">
-        <f>H47*J47</f>
-        <v>104.50892748091603</v>
+        <f>H47*J47*E42</f>
+        <v>79.749087226735043</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">

--- a/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
+++ b/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C9F903-0D96-7E4D-8C33-A7BEB4DA4661}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEDCD48-F657-E945-BD35-BE9935AC74B1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>Average current in μA</t>
   </si>
@@ -63,9 +63,6 @@
     <t>1 BLE event subtracted</t>
   </si>
   <si>
-    <t>Startup + 1 BLE event in μWs</t>
-  </si>
-  <si>
     <t>percent change 2,85 to 1,8</t>
   </si>
   <si>
@@ -77,6 +74,24 @@
   <si>
     <t>Estimated Work</t>
   </si>
+  <si>
+    <t>RC ehsb_nordic_b</t>
+  </si>
+  <si>
+    <t>Estimated at 1,8V in μWs</t>
+  </si>
+  <si>
+    <t>DCDC</t>
+  </si>
+  <si>
+    <t>21 bytes</t>
+  </si>
+  <si>
+    <t>20ms advertising interval</t>
+  </si>
+  <si>
+    <t>0dBm TX power</t>
+  </si>
 </sst>
 </file>
 
@@ -85,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,24 +118,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -149,7 +149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,29 +205,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -338,7 +337,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>L.O!$A$11:$A$31</c:f>
+              <c:f>L.O!$A$17:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -410,7 +409,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>L.O!$D$11:$D$31</c:f>
+              <c:f>L.O!$D$17:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -856,7 +855,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>L.O!$A$11:$A$31</c:f>
+              <c:f>L.O!$A$17:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -928,7 +927,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>L.O!$C$11:$C$31</c:f>
+              <c:f>L.O!$C$17:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2375,13 +2374,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>606778</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>89798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1590707</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>76969</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2411,13 +2410,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>602929</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>166768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1629192</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2745,10 +2744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A384BA0-3C50-7245-86DA-782CB137FD7D}">
-  <dimension ref="A7:K56"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2758,639 +2757,777 @@
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
     <col min="10" max="10" width="23.5" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="12" max="13" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>2.85</v>
+      </c>
+      <c r="B11" s="11">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11">
+        <v>500</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" ref="D11" si="0">A11*B11*C11*10^(-3)</f>
+        <v>35.625</v>
+      </c>
+      <c r="E11" s="14">
+        <f>D11/D29</f>
+        <v>0.95419847328244267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="F9" s="2" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>739</v>
+      </c>
+      <c r="D17" s="10">
+        <f>A17*B17*C17*10^(-3)</f>
+        <v>31.407500000000002</v>
+      </c>
+      <c r="F17" s="10">
+        <f>D17*A51</f>
+        <v>23.966559770992372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="B18" s="8">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8">
+        <v>713</v>
+      </c>
+      <c r="D18" s="10">
+        <f>A18*B18*C18*10^(-3)</f>
+        <v>32.085000000000001</v>
+      </c>
+      <c r="F18" s="10">
+        <f>D18*A51</f>
+        <v>24.483549160305348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="B19" s="8">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8">
+        <v>684</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" ref="D19:D29" si="1">A19*B19*C19*10^(-3)</f>
+        <v>32.49</v>
+      </c>
+      <c r="F19" s="10">
+        <f>D19*A51</f>
+        <v>24.792598167938934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8">
+        <v>661</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="1"/>
+        <v>33.049999999999997</v>
+      </c>
+      <c r="F20" s="10">
+        <f>D20*A51</f>
+        <v>25.219925190839696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="B21" s="8">
+        <v>25</v>
+      </c>
+      <c r="C21" s="8">
+        <v>640</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="1"/>
+        <v>33.6</v>
+      </c>
+      <c r="F21" s="10">
+        <f>D21*A51</f>
+        <v>25.639621374045806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B22" s="8">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8">
+        <v>621</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="1"/>
+        <v>34.155000000000008</v>
+      </c>
+      <c r="F22" s="10">
+        <f>D22*A51</f>
+        <v>26.063132977099247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B23" s="8">
+        <v>25</v>
+      </c>
+      <c r="C23" s="8">
+        <v>603</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="1"/>
+        <v>34.672499999999992</v>
+      </c>
+      <c r="F23" s="10">
+        <f>D23*A51</f>
+        <v>26.458028931297708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="B24" s="8">
+        <v>25</v>
+      </c>
+      <c r="C24" s="8">
+        <v>586</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="1"/>
+        <v>35.160000000000004</v>
+      </c>
+      <c r="F24" s="10">
+        <f>D24*A51</f>
+        <v>26.830032366412219</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>25</v>
+      </c>
+      <c r="C25" s="8">
+        <v>570</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="1"/>
+        <v>35.625</v>
+      </c>
+      <c r="F25" s="10">
+        <f>D25*A51</f>
+        <v>27.184866412213744</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="B26" s="8">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8">
+        <v>555</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>36.075000000000003</v>
+      </c>
+      <c r="F26" s="10">
+        <f>D26*A51</f>
+        <v>27.528254198473288</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="B27" s="8">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8">
+        <v>542</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>36.585000000000001</v>
+      </c>
+      <c r="F27" s="10">
+        <f>D27*A51</f>
+        <v>27.917427022900767</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="B28" s="8">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8">
+        <v>530</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="1"/>
+        <v>37.1</v>
+      </c>
+      <c r="F28" s="10">
+        <f>D28*A51</f>
+        <v>28.310415267175575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>2.85</v>
+      </c>
+      <c r="B29" s="16">
+        <v>25</v>
+      </c>
+      <c r="C29" s="16">
+        <v>524</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="1"/>
+        <v>37.335000000000001</v>
+      </c>
+      <c r="F29" s="17">
+        <f>D29*A51</f>
+        <v>28.489740000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="B30" s="8">
+        <v>25</v>
+      </c>
+      <c r="C30" s="8">
+        <v>519</v>
+      </c>
+      <c r="D30" s="10">
+        <f>A30*B30*C30*10^(-3)</f>
+        <v>37.627499999999998</v>
+      </c>
+      <c r="F30" s="10">
+        <f>D30*A51</f>
+        <v>28.712942061068702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>3</v>
+      </c>
+      <c r="B31" s="8">
+        <v>25</v>
+      </c>
+      <c r="C31" s="8">
+        <v>508</v>
+      </c>
+      <c r="D31" s="10">
+        <f>A31*B31*C31*10^(-3)</f>
+        <v>38.1</v>
+      </c>
+      <c r="F31" s="10">
+        <f>D31*A51</f>
+        <v>29.073499236641226</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2">
+        <v>497</v>
+      </c>
+      <c r="D32" s="3">
+        <f>A32*B32*C32*10^(-3)</f>
+        <v>38.517499999999998</v>
+      </c>
+      <c r="F32" s="3">
+        <f>D32*A51</f>
+        <v>29.392086793893132</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2">
+        <v>485</v>
+      </c>
+      <c r="D33" s="2">
+        <f>A33*B33*C33*10^(-3)</f>
+        <v>38.800000000000004</v>
+      </c>
+      <c r="F33" s="3">
+        <f>D33*A51</f>
+        <v>29.607658015267184</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="B34" s="8">
+        <v>25</v>
+      </c>
+      <c r="C34" s="8">
+        <v>478</v>
+      </c>
+      <c r="D34" s="10">
+        <f>A34*B34*C34*10^(-3)</f>
+        <v>39.435000000000002</v>
+      </c>
+      <c r="F34" s="10">
+        <f>D34*A51</f>
+        <v>30.092216335877868</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="B35" s="11">
+        <v>25</v>
+      </c>
+      <c r="C35" s="2">
+        <v>471</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" ref="D35:D37" si="2">A35*B35*C35*10^(-3)</f>
+        <v>40.035000000000004</v>
+      </c>
+      <c r="F35" s="10">
+        <f>D35*A51</f>
+        <v>30.550066717557257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="B36" s="11">
+        <v>25</v>
+      </c>
+      <c r="C36" s="2">
+        <v>465</v>
+      </c>
+      <c r="D36" s="10">
+        <f t="shared" si="2"/>
+        <v>40.6875</v>
+      </c>
+      <c r="F36" s="10">
+        <f>D36*A51</f>
+        <v>31.04797900763359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="B37" s="11">
+        <v>25</v>
+      </c>
+      <c r="C37" s="2">
+        <v>460</v>
+      </c>
+      <c r="D37" s="10">
+        <f t="shared" si="2"/>
+        <v>41.4</v>
+      </c>
+      <c r="F37" s="10">
+        <f>D37*A51</f>
+        <v>31.591676335877864</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F39" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F40" s="22">
+        <f>D18/D29</f>
+        <v>0.85938127762153471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="G46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
+        <v>2.85</v>
+      </c>
+      <c r="B48" s="11">
+        <v>26.8</v>
+      </c>
+      <c r="C48" s="11">
+        <v>373</v>
+      </c>
+      <c r="D48" s="10">
+        <f>A48*B48*C48*10^(-3)</f>
+        <v>28.489740000000005</v>
+      </c>
+      <c r="E48" s="3">
+        <f>28.5*F40</f>
+        <v>24.492366412213741</v>
+      </c>
+      <c r="G48" s="18">
+        <v>2.85</v>
+      </c>
+      <c r="H48" s="11">
+        <v>502</v>
+      </c>
+      <c r="I48" s="11">
+        <v>85</v>
+      </c>
+      <c r="J48" s="10">
+        <f>G48*H48*I48*10^(-3)</f>
+        <v>121.6095</v>
+      </c>
+      <c r="K48" s="3">
+        <f>J48-D48</f>
+        <v>93.119759999999985</v>
+      </c>
+      <c r="L48" s="3">
+        <f>K48*F40</f>
+        <v>80.02537832061067</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="20">
+        <f>D48/D29</f>
+        <v>0.76308396946564894</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>1.8</v>
+      </c>
+      <c r="H53" s="15">
+        <f>E48+L48</f>
+        <v>104.51774473282441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="G59" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="E60" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="B11" s="3">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3">
-        <v>739</v>
-      </c>
-      <c r="D11" s="12">
-        <f>A11*B11*C11*10^(-3)</f>
-        <v>31.407500000000002</v>
-      </c>
-      <c r="F11" s="12">
-        <f>D11*E42</f>
-        <v>23.966559770992372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="K60" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="18">
+        <v>2.85</v>
+      </c>
+      <c r="B61" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="C61" s="11">
+        <v>420</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" ref="D61" si="3">A61*B61*C61*10^(-3)</f>
+        <v>30.164399999999997</v>
+      </c>
+      <c r="E61" s="3">
+        <f>D61*F40</f>
+        <v>25.922720610687019</v>
+      </c>
+      <c r="G61" s="18">
+        <v>2.85</v>
+      </c>
+      <c r="H61" s="11">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I61" s="11">
+        <v>670</v>
+      </c>
+      <c r="J61" s="10">
+        <f>G61*H61*I61*10^(-3)</f>
+        <v>73.897650000000013</v>
+      </c>
+      <c r="K61" s="3">
+        <f>J61-D61</f>
+        <v>43.733250000000012</v>
+      </c>
+      <c r="L61" s="3">
+        <f>K61*F40</f>
+        <v>37.583536259541994</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G66">
         <v>1.8</v>
       </c>
-      <c r="B12" s="10">
-        <v>25</v>
-      </c>
-      <c r="C12" s="10">
-        <v>713</v>
-      </c>
-      <c r="D12" s="12">
-        <f>A12*B12*C12*10^(-3)</f>
-        <v>32.085000000000001</v>
-      </c>
-      <c r="F12" s="12">
-        <f>D12*E42</f>
-        <v>24.483549160305348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="B13" s="10">
-        <v>25</v>
-      </c>
-      <c r="C13" s="10">
-        <v>684</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" ref="D13:F23" si="0">A13*B13*C13*10^(-3)</f>
-        <v>32.49</v>
-      </c>
-      <c r="F13" s="12">
-        <f>D13*E42</f>
-        <v>24.792598167938934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>2</v>
-      </c>
-      <c r="B14" s="10">
-        <v>25</v>
-      </c>
-      <c r="C14" s="10">
-        <v>661</v>
-      </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>33.049999999999997</v>
-      </c>
-      <c r="F14" s="12">
-        <f>D14*E42</f>
-        <v>25.219925190839696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="B15" s="10">
-        <v>25</v>
-      </c>
-      <c r="C15" s="10">
-        <v>640</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="0"/>
-        <v>33.6</v>
-      </c>
-      <c r="F15" s="12">
-        <f>D15*E42</f>
-        <v>25.639621374045806</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B16" s="10">
-        <v>25</v>
-      </c>
-      <c r="C16" s="10">
-        <v>621</v>
-      </c>
-      <c r="D16" s="12">
-        <f t="shared" si="0"/>
-        <v>34.155000000000008</v>
-      </c>
-      <c r="F16" s="12">
-        <f>D16*E42</f>
-        <v>26.063132977099247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B17" s="10">
-        <v>25</v>
-      </c>
-      <c r="C17" s="10">
-        <v>603</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>34.672499999999992</v>
-      </c>
-      <c r="F17" s="12">
-        <f>D17*E42</f>
-        <v>26.458028931297708</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="B18" s="10">
-        <v>25</v>
-      </c>
-      <c r="C18" s="10">
-        <v>586</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>35.160000000000004</v>
-      </c>
-      <c r="F18" s="12">
-        <f>D18*E42</f>
-        <v>26.830032366412219</v>
-      </c>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="B19" s="10">
-        <v>25</v>
-      </c>
-      <c r="C19" s="10">
-        <v>570</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" si="0"/>
-        <v>35.625</v>
-      </c>
-      <c r="F19" s="12">
-        <f>D19*E42</f>
-        <v>27.184866412213744</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="B20" s="10">
-        <v>25</v>
-      </c>
-      <c r="C20" s="10">
-        <v>555</v>
-      </c>
-      <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>36.075000000000003</v>
-      </c>
-      <c r="F20" s="12">
-        <f>D20*E42</f>
-        <v>27.528254198473288</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>2.7</v>
-      </c>
-      <c r="B21" s="10">
-        <v>25</v>
-      </c>
-      <c r="C21" s="10">
-        <v>542</v>
-      </c>
-      <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>36.585000000000001</v>
-      </c>
-      <c r="F21" s="12">
-        <f>D21*E42</f>
-        <v>27.917427022900767</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="B22" s="10">
-        <v>25</v>
-      </c>
-      <c r="C22" s="10">
-        <v>530</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>37.1</v>
-      </c>
-      <c r="F22" s="12">
-        <f>D22*E42</f>
-        <v>28.310415267175575</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
-        <v>2.85</v>
-      </c>
-      <c r="B23" s="18">
-        <v>25</v>
-      </c>
-      <c r="C23" s="18">
-        <v>524</v>
-      </c>
-      <c r="D23" s="19">
-        <f t="shared" si="0"/>
-        <v>37.335000000000001</v>
-      </c>
-      <c r="F23" s="19">
-        <f>D23*E42</f>
-        <v>28.489740000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>2.9</v>
-      </c>
-      <c r="B24" s="10">
-        <v>25</v>
-      </c>
-      <c r="C24" s="10">
-        <v>519</v>
-      </c>
-      <c r="D24" s="12">
-        <f>A24*B24*C24*10^(-3)</f>
-        <v>37.627499999999998</v>
-      </c>
-      <c r="F24" s="12">
-        <f>D24*E42</f>
-        <v>28.712942061068702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>3</v>
-      </c>
-      <c r="B25" s="10">
-        <v>25</v>
-      </c>
-      <c r="C25" s="10">
-        <v>508</v>
-      </c>
-      <c r="D25" s="12">
-        <f>A25*B25*C25*10^(-3)</f>
-        <v>38.1</v>
-      </c>
-      <c r="F25" s="12">
-        <f>D25*E42</f>
-        <v>29.073499236641226</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="B26" s="3">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3">
-        <v>497</v>
-      </c>
-      <c r="D26" s="4">
-        <f>A26*B26*C26*10^(-3)</f>
-        <v>38.517499999999998</v>
-      </c>
-      <c r="F26" s="4">
-        <f>D26*E42</f>
-        <v>29.392086793893132</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="B27" s="3">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3">
-        <v>485</v>
-      </c>
-      <c r="D27" s="3">
-        <f>A27*B27*C27*10^(-3)</f>
-        <v>38.800000000000004</v>
-      </c>
-      <c r="F27" s="4">
-        <f>D27*E42</f>
-        <v>29.607658015267184</v>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>3.3</v>
-      </c>
-      <c r="B28" s="10">
-        <v>25</v>
-      </c>
-      <c r="C28" s="10">
-        <v>478</v>
-      </c>
-      <c r="D28" s="12">
-        <f>A28*B28*C28*10^(-3)</f>
-        <v>39.435000000000002</v>
-      </c>
-      <c r="F28" s="12">
-        <f>D28*E42</f>
-        <v>30.092216335877868</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
-        <v>3.4</v>
-      </c>
-      <c r="B29" s="13">
-        <v>25</v>
-      </c>
-      <c r="C29" s="3">
-        <v>471</v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" ref="D29:F31" si="1">A29*B29*C29*10^(-3)</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="F29" s="12">
-        <f>D29*E42</f>
-        <v>30.550066717557257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="B30" s="13">
-        <v>25</v>
-      </c>
-      <c r="C30" s="3">
-        <v>465</v>
-      </c>
-      <c r="D30" s="12">
-        <f t="shared" si="1"/>
-        <v>40.6875</v>
-      </c>
-      <c r="F30" s="12">
-        <f>D30*E42</f>
-        <v>31.04797900763359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="B31" s="13">
-        <v>25</v>
-      </c>
-      <c r="C31" s="3">
-        <v>460</v>
-      </c>
-      <c r="D31" s="12">
-        <f t="shared" si="1"/>
-        <v>41.4</v>
-      </c>
-      <c r="F31" s="12">
-        <f>D31*E42</f>
-        <v>31.591676335877864</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="G40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="20">
-        <v>2.85</v>
-      </c>
-      <c r="B42" s="13">
-        <v>26.8</v>
-      </c>
-      <c r="C42" s="13">
-        <v>373</v>
-      </c>
-      <c r="D42" s="12">
-        <f t="shared" ref="D42" si="2">A42*B42*C42*10^(-3)</f>
-        <v>28.489740000000005</v>
-      </c>
-      <c r="E42" s="16">
-        <f>D42/D23</f>
-        <v>0.76308396946564894</v>
-      </c>
-      <c r="G42" s="20">
-        <v>2.85</v>
-      </c>
-      <c r="H42" s="13">
-        <v>502</v>
-      </c>
-      <c r="I42" s="13">
-        <v>85</v>
-      </c>
-      <c r="J42" s="12">
-        <f>G42*H42*I42*10^(-3)</f>
-        <v>121.6095</v>
-      </c>
-      <c r="K42" s="4">
-        <f>J42-D42</f>
-        <v>93.119759999999985</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="G46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47">
-        <v>2.85</v>
-      </c>
-      <c r="H47" s="21">
-        <f>K42+D42</f>
-        <v>121.6095</v>
-      </c>
-      <c r="J47" s="23">
-        <f>D12/D23</f>
-        <v>0.85938127762153471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="20">
-        <v>2.85</v>
-      </c>
-      <c r="B48" s="13">
-        <v>25</v>
-      </c>
-      <c r="C48" s="13">
-        <v>500</v>
-      </c>
-      <c r="D48" s="12">
-        <f t="shared" ref="D48" si="3">A48*B48*C48*10^(-3)</f>
-        <v>35.625</v>
-      </c>
-      <c r="E48" s="16">
-        <f>D48/D23</f>
-        <v>0.95419847328244267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G49" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G50">
-        <v>1.8</v>
-      </c>
-      <c r="H50" s="17">
-        <f>H47*J47*E42</f>
-        <v>79.749087226735043</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-    </row>
-    <row r="56" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="H66" s="19">
+        <f>E61+L61</f>
+        <v>63.506256870229009</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
+++ b/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEDCD48-F657-E945-BD35-BE9935AC74B1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E834130-0156-6340-BD9F-479FA17823A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="14020" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="L.O" sheetId="3" r:id="rId1"/>
@@ -2746,7 +2746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A384BA0-3C50-7245-86DA-782CB137FD7D}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>

--- a/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
+++ b/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E834130-0156-6340-BD9F-479FA17823A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017767D3-1C20-0943-BE2C-6ACB5CBEC69A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="14020" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
   </bookViews>
@@ -2746,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A384BA0-3C50-7245-86DA-782CB137FD7D}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
+++ b/Misc/Measurements and calculations/Energy/Design spesification and energy budget 1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017767D3-1C20-0943-BE2C-6ACB5CBEC69A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B622395D-030E-EC46-A71B-7A30DB20FCC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="14020" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="L.O" sheetId="3" r:id="rId1"/>
@@ -2746,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A384BA0-3C50-7245-86DA-782CB137FD7D}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
